--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD509D4E-BE67-4624-883D-4F4CB974A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5DF7D0-BDDB-48F1-97C2-7DFD66AFF13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -53,55 +53,67 @@
     <t>MLM</t>
   </si>
   <si>
-    <t>LAP</t>
-  </si>
-  <si>
-    <t>JLC</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>JAP</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
     <t>JJR</t>
   </si>
   <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Affiliation</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>Colombia</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>abrev</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>affiliation</t>
+  </si>
+  <si>
+    <t>Pizzolon, LA</t>
+  </si>
+  <si>
+    <t>LAPZ</t>
+  </si>
+  <si>
+    <t>Miserendino, ML</t>
+  </si>
+  <si>
+    <t>Cressa, C</t>
+  </si>
+  <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>Rincon, J</t>
+  </si>
+  <si>
+    <t>JRN</t>
+  </si>
+  <si>
+    <t>Roldan, G</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>Posada, JA</t>
+  </si>
+  <si>
+    <t>JAPO</t>
+  </si>
+  <si>
+    <t>Ramirez, JJ</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,12 +145,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46BBE5-340B-43C0-BB2F-9CA2B267DE48}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,12 +508,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -489,59 +522,45 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
         <v>2000</v>
       </c>
     </row>
@@ -552,185 +571,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B6" activeCellId="1" sqref="B8 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>2000</v>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5DF7D0-BDDB-48F1-97C2-7DFD66AFF13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6251552-1829-44B9-BE0E-27CF6115E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
     <sheet name="2000nodes" sheetId="2" r:id="rId2"/>
+    <sheet name="2001authors" sheetId="3" r:id="rId3"/>
+    <sheet name="2001nodes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -114,6 +116,153 @@
   </si>
   <si>
     <t>Ramirez, JJ</t>
+  </si>
+  <si>
+    <t>Alcocer, J</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Escobar, EG</t>
+  </si>
+  <si>
+    <t>EGE</t>
+  </si>
+  <si>
+    <t>Lugo, A</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Lozano, LM</t>
+  </si>
+  <si>
+    <t>LML</t>
+  </si>
+  <si>
+    <t>Oseguera, LA</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>Boyero, L</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Bailey, RC</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>Alencar, YB</t>
+  </si>
+  <si>
+    <t>YBA</t>
+  </si>
+  <si>
+    <t>Hamada, N</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Magni-Darwich, S</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>Melo, AS</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>Froehlich, CG</t>
+  </si>
+  <si>
+    <t>CGF</t>
+  </si>
+  <si>
+    <t>Fossati, O</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>Wasson, JG</t>
+  </si>
+  <si>
+    <t>JGW</t>
+  </si>
+  <si>
+    <t>Hery, C</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Salinas, G</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Marin, R</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Ramirez, A</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Pringle, CM</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>duplicate removed</t>
   </si>
 </sst>
 </file>
@@ -137,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,25 +301,33 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,12 +646,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,11 +665,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
@@ -522,11 +679,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3">
@@ -536,11 +693,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4">
@@ -550,11 +707,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -573,13 +730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" activeCellId="1" sqref="B8 B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -599,15 +756,421 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>2001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -616,18 +1179,18 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -639,104 +1202,390 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>2006</v>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>2001</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2001</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6251552-1829-44B9-BE0E-27CF6115E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD83F3E-A9B4-470D-9567-2BBAD1B624BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="5" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
     <sheet name="2000nodes" sheetId="2" r:id="rId2"/>
     <sheet name="2001authors" sheetId="3" r:id="rId3"/>
     <sheet name="2001nodes" sheetId="4" r:id="rId4"/>
+    <sheet name="2002authors" sheetId="5" r:id="rId5"/>
+    <sheet name="2002nodes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -263,6 +265,48 @@
   </si>
   <si>
     <t>duplicate removed</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>DFB</t>
+  </si>
+  <si>
+    <t>DFBP</t>
+  </si>
+  <si>
+    <t>MPSL</t>
+  </si>
+  <si>
+    <t>JLNS</t>
+  </si>
+  <si>
+    <t>LFMD</t>
+  </si>
+  <si>
+    <t>Bosch, J</t>
+  </si>
+  <si>
+    <t>Buss, DF</t>
+  </si>
+  <si>
+    <t>Baptista, DF</t>
+  </si>
+  <si>
+    <t>Silveira, MP</t>
+  </si>
+  <si>
+    <t>Nessimian, JL</t>
+  </si>
+  <si>
+    <t>Dorville, LFM</t>
+  </si>
+  <si>
+    <t>DeLope, JL</t>
+  </si>
+  <si>
+    <t>JLD</t>
   </si>
 </sst>
 </file>
@@ -905,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1175,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,4 +1635,342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17D1B6C-C6AD-4065-A91F-F57A6161323C}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A4F7-DD1D-4CA4-9E07-26648F9326F0}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9">
+        <v>2002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10">
+        <v>2002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>